--- a/Global/OMIS/OMIS_Headers.xlsx
+++ b/Global/OMIS/OMIS_Headers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jhreportscomau-my.sharepoint.com/personal/josh_jhreports_com_au/Documents/JHR ONSITE/Git_Scripts/DataConnect/OMIS/Global/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51000689\Documents\GitHub\clinical-data-collection\Global\OMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{16EEECB5-2466-454E-AE57-9CEF0F0B2B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73A57E03-04B1-4F42-BC34-D2BD9C60C327}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4ADF25-896C-4CB9-B1EC-5BAFE24D9C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22560" yWindow="2020" windowWidth="28160" windowHeight="23200" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
+    <workbookView xWindow="19980" yWindow="1710" windowWidth="28770" windowHeight="15570" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
   </bookViews>
   <sheets>
     <sheet name="Short" sheetId="1" r:id="rId1"/>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="778">
   <si>
     <t>PerformanceStatus</t>
   </si>
@@ -3629,7 +3629,13 @@
     <t>NOtificationEpisodeChemoEndDate</t>
   </si>
   <si>
-    <t>SystemicTherapyProtocolCycleNumber</t>
+    <t>AntiNeoplasticCycles (NOT304)</t>
+  </si>
+  <si>
+    <t>NotificationEpisodeChemoCycle (NOT338)</t>
+  </si>
+  <si>
+    <t>SystemicTherapyProtocolCycleNumber (NOT315)</t>
   </si>
 </sst>
 </file>
@@ -4080,7 +4086,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="EROD 2.0 vs OMIS Spec 3.4 OHR"/>
@@ -5618,13 +5624,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -5632,7 +5638,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5640,7 +5646,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5648,7 +5654,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5656,7 +5662,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5664,7 +5670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5672,7 +5678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5680,7 +5686,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5688,7 +5694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5696,7 +5702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5704,7 +5710,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5712,7 +5718,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5720,7 +5726,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5728,7 +5734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5736,7 +5742,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5744,7 +5750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5752,7 +5758,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5760,7 +5766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5768,7 +5774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5776,7 +5782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5784,7 +5790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5792,7 +5798,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5808,7 +5814,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5816,7 +5822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5832,7 +5838,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5840,7 +5846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5848,7 +5854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5856,7 +5862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5864,7 +5870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5872,7 +5878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5880,7 +5886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5888,7 +5894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5896,7 +5902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5904,7 +5910,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5912,7 +5918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5920,7 +5926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5928,7 +5934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5936,7 +5942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5944,7 +5950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5952,7 +5958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5960,7 +5966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5968,7 +5974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5976,7 +5982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5984,7 +5990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5992,7 +5998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6000,7 +6006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6008,7 +6014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6016,7 +6022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6024,7 +6030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6032,7 +6038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6040,7 +6046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6048,7 +6054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6056,7 +6062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6064,7 +6070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6072,7 +6078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6080,7 +6086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6088,7 +6094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6096,7 +6102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6104,7 +6110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6112,7 +6118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6120,7 +6126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6142,12 +6148,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -6155,7 +6161,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6163,7 +6169,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6171,7 +6177,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6179,7 +6185,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6187,7 +6193,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6195,7 +6201,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6203,7 +6209,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6211,7 +6217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6219,7 +6225,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6227,7 +6233,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6235,7 +6241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6243,7 +6249,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6251,7 +6257,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6259,7 +6265,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6267,7 +6273,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6275,7 +6281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6283,7 +6289,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6291,7 +6297,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6299,7 +6305,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6307,7 +6313,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6315,7 +6321,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6323,7 +6329,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6331,7 +6337,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6339,7 +6345,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6347,7 +6353,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6355,7 +6361,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6363,7 +6369,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6371,7 +6377,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6379,7 +6385,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6387,7 +6393,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6395,7 +6401,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6403,7 +6409,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6411,7 +6417,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6419,7 +6425,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6427,7 +6433,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6435,7 +6441,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6443,7 +6449,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6451,7 +6457,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6459,7 +6465,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6467,7 +6473,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6475,7 +6481,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6483,7 +6489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6491,7 +6497,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6499,7 +6505,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6507,7 +6513,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6515,7 +6521,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6523,7 +6529,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6531,7 +6537,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6539,7 +6545,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6547,7 +6553,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6555,7 +6561,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6563,7 +6569,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6571,7 +6577,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6579,7 +6585,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6587,7 +6593,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6595,7 +6601,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6603,7 +6609,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6611,7 +6617,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6619,7 +6625,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6627,7 +6633,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6635,7 +6641,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6643,7 +6649,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6651,7 +6657,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6659,7 +6665,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6667,7 +6673,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6675,7 +6681,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6683,7 +6689,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6691,7 +6697,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6699,7 +6705,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6707,7 +6713,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6715,7 +6721,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6723,7 +6729,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6731,7 +6737,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6739,7 +6745,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6747,7 +6753,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6755,7 +6761,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6763,7 +6769,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6771,7 +6777,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6779,7 +6785,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6787,7 +6793,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6795,7 +6801,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6803,7 +6809,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6811,7 +6817,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6819,7 +6825,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6827,7 +6833,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6835,7 +6841,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6843,7 +6849,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6851,7 +6857,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6859,7 +6865,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6867,7 +6873,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6875,7 +6881,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6883,7 +6889,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6891,7 +6897,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6899,7 +6905,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6907,7 +6913,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6915,7 +6921,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6923,7 +6929,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6931,7 +6937,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6939,7 +6945,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6947,7 +6953,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6955,7 +6961,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6963,7 +6969,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6971,7 +6977,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6979,7 +6985,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6987,7 +6993,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6995,7 +7001,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7003,7 +7009,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7011,7 +7017,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7019,7 +7025,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7027,7 +7033,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7035,7 +7041,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7043,7 +7049,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7051,7 +7057,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7059,7 +7065,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7067,7 +7073,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7075,7 +7081,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7083,7 +7089,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7099,7 +7105,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7107,7 +7113,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7115,7 +7121,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7123,7 +7129,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7131,7 +7137,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7139,7 +7145,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7147,7 +7153,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7155,7 +7161,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7163,7 +7169,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7171,7 +7177,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7179,7 +7185,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7187,7 +7193,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7195,7 +7201,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7221,23 +7227,23 @@
       <selection pane="bottomLeft" activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.5" customWidth="1"/>
-    <col min="11" max="11" width="62.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="54.6640625" customWidth="1"/>
-    <col min="13" max="13" width="98.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="95.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" customWidth="1"/>
+    <col min="11" max="11" width="62.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="54.7109375" customWidth="1"/>
+    <col min="13" max="13" width="98.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="95.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>199</v>
       </c>
@@ -7281,7 +7287,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="80" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -7324,7 +7330,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>213</v>
       </c>
@@ -7345,7 +7351,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -7385,7 +7391,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>220</v>
       </c>
@@ -7422,7 +7428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>223</v>
       </c>
@@ -7462,7 +7468,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>228</v>
       </c>
@@ -7483,7 +7489,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -7520,7 +7526,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>234</v>
       </c>
@@ -7557,7 +7563,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>237</v>
       </c>
@@ -7597,7 +7603,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -7634,7 +7640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>242</v>
       </c>
@@ -7672,7 +7678,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>247</v>
       </c>
@@ -7710,7 +7716,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>251</v>
       </c>
@@ -7748,7 +7754,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="112" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -7791,7 +7797,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>259</v>
       </c>
@@ -7831,7 +7837,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>264</v>
       </c>
@@ -7874,7 +7880,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -7914,7 +7920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>269</v>
       </c>
@@ -7954,7 +7960,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>269</v>
       </c>
@@ -7994,7 +8000,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>269</v>
       </c>
@@ -8034,7 +8040,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>288</v>
       </c>
@@ -8077,7 +8083,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>293</v>
       </c>
@@ -8120,7 +8126,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="256" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="240" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>298</v>
       </c>
@@ -8163,7 +8169,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="11" customFormat="1" ht="209" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="11" customFormat="1" ht="180.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>303</v>
       </c>
@@ -8203,7 +8209,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="144" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>307</v>
       </c>
@@ -8249,7 +8255,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="11" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>311</v>
       </c>
@@ -8270,7 +8276,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="1:14" s="11" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="11" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>312</v>
       </c>
@@ -8310,7 +8316,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="11" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="11" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>317</v>
       </c>
@@ -8348,7 +8354,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="11" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="11" customFormat="1" ht="23.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>322</v>
       </c>
@@ -8386,7 +8392,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>327</v>
       </c>
@@ -8429,7 +8435,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>331</v>
       </c>
@@ -8469,7 +8475,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>334</v>
       </c>
@@ -8507,7 +8513,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>338</v>
       </c>
@@ -8528,7 +8534,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>339</v>
       </c>
@@ -8574,7 +8580,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>339</v>
       </c>
@@ -8620,7 +8626,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>346</v>
       </c>
@@ -8641,7 +8647,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="19"/>
     </row>
-    <row r="38" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -8687,7 +8693,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>350</v>
       </c>
@@ -8730,7 +8736,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>350</v>
       </c>
@@ -8770,7 +8776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="192" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="180" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>358</v>
       </c>
@@ -8813,7 +8819,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="112" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>362</v>
       </c>
@@ -8856,7 +8862,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>366</v>
       </c>
@@ -8899,7 +8905,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>370</v>
       </c>
@@ -8942,7 +8948,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>370</v>
       </c>
@@ -8982,7 +8988,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
         <v>378</v>
       </c>
@@ -9020,7 +9026,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="176" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>383</v>
       </c>
@@ -9063,7 +9069,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>387</v>
       </c>
@@ -9084,7 +9090,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="19"/>
     </row>
-    <row r="49" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>388</v>
       </c>
@@ -9124,7 +9130,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>393</v>
       </c>
@@ -9164,7 +9170,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="11" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="11" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>397</v>
       </c>
@@ -9202,7 +9208,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="11" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="11" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>397</v>
       </c>
@@ -9242,7 +9248,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="11" customFormat="1" ht="144" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="11" customFormat="1" ht="124.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>405</v>
       </c>
@@ -9282,7 +9288,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>409</v>
       </c>
@@ -9303,7 +9309,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="19"/>
     </row>
-    <row r="55" spans="1:13" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -9343,7 +9349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>414</v>
       </c>
@@ -9386,7 +9392,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="34" t="s">
         <v>419</v>
       </c>
@@ -9426,7 +9432,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="176" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>425</v>
       </c>
@@ -9469,7 +9475,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="34" t="s">
         <v>429</v>
       </c>
@@ -9509,7 +9515,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>433</v>
       </c>
@@ -9552,7 +9558,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="34" t="s">
         <v>437</v>
       </c>
@@ -9592,7 +9598,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>441</v>
       </c>
@@ -9635,7 +9641,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>446</v>
       </c>
@@ -9675,7 +9681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="11" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="11" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
         <v>449</v>
       </c>
@@ -9715,7 +9721,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="11" customFormat="1" ht="79" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
         <v>454</v>
       </c>
@@ -9755,7 +9761,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>459</v>
       </c>
@@ -9776,7 +9782,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="19"/>
     </row>
-    <row r="67" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>460</v>
       </c>
@@ -9816,7 +9822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>463</v>
       </c>
@@ -9856,7 +9862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>466</v>
       </c>
@@ -9896,7 +9902,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>471</v>
       </c>
@@ -9936,7 +9942,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="11" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="11" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="34" t="s">
         <v>475</v>
       </c>
@@ -9976,7 +9982,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>480</v>
       </c>
@@ -9997,7 +10003,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="19"/>
     </row>
-    <row r="73" spans="1:14" ht="192" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="180" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>481</v>
       </c>
@@ -10043,7 +10049,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="29" t="s">
         <v>485</v>
       </c>
@@ -10083,7 +10089,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="29" t="s">
         <v>489</v>
       </c>
@@ -10123,7 +10129,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="128" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>493</v>
       </c>
@@ -10163,7 +10169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="11" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="29" t="s">
         <v>496</v>
       </c>
@@ -10203,7 +10209,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>501</v>
       </c>
@@ -10224,7 +10230,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="19"/>
     </row>
-    <row r="79" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>502</v>
       </c>
@@ -10267,7 +10273,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>504</v>
       </c>
@@ -10310,7 +10316,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="112" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>507</v>
       </c>
@@ -10350,7 +10356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>512</v>
       </c>
@@ -10390,7 +10396,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>516</v>
       </c>
@@ -10411,7 +10417,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="19"/>
     </row>
-    <row r="84" spans="1:14" ht="49" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>517</v>
       </c>
@@ -10451,7 +10457,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="81" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>521</v>
       </c>
@@ -10488,7 +10494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="65" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="60.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>524</v>
       </c>
@@ -10525,7 +10531,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="81" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>527</v>
       </c>
@@ -10568,7 +10574,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="65" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="60.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>531</v>
       </c>
@@ -10608,7 +10614,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="65" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="60.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>535</v>
       </c>
@@ -10651,7 +10657,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="97" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="105.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>539</v>
       </c>
@@ -10688,7 +10694,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="177" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="165.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>542</v>
       </c>
@@ -10728,7 +10734,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="81" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>547</v>
       </c>
@@ -10768,7 +10774,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>552</v>
       </c>
@@ -10789,7 +10795,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="19"/>
     </row>
-    <row r="94" spans="1:14" s="11" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" s="11" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="36" t="s">
         <v>553</v>
       </c>
@@ -10829,7 +10835,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="11" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="11" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="36" t="s">
         <v>557</v>
       </c>
@@ -10869,7 +10875,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="14" customFormat="1" ht="27" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" s="14" customFormat="1" ht="23.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="36" t="s">
         <v>561</v>
       </c>
@@ -10909,7 +10915,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="14" customFormat="1" ht="66" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" s="14" customFormat="1" ht="57" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="36" t="s">
         <v>565</v>
       </c>
@@ -10949,7 +10955,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="14" customFormat="1" ht="131" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" s="14" customFormat="1" ht="113.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="36" t="s">
         <v>570</v>
       </c>
@@ -10989,7 +10995,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="14" customFormat="1" ht="79" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" s="14" customFormat="1" ht="68.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="36" t="s">
         <v>575</v>
       </c>
@@ -11029,7 +11035,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="14" customFormat="1" ht="183" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" s="14" customFormat="1" ht="169.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="36" t="s">
         <v>579</v>
       </c>
@@ -11069,7 +11075,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="36" t="s">
         <v>585</v>
       </c>
@@ -11109,7 +11115,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="36" t="s">
         <v>589</v>
       </c>
@@ -11149,7 +11155,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="36" t="s">
         <v>593</v>
       </c>
@@ -11189,7 +11195,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="36" t="s">
         <v>597</v>
       </c>
@@ -11229,7 +11235,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="36" t="s">
         <v>601</v>
       </c>
@@ -11269,7 +11275,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="36" t="s">
         <v>605</v>
       </c>
@@ -11309,7 +11315,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="36" t="s">
         <v>610</v>
       </c>
@@ -11349,7 +11355,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="36" t="s">
         <v>614</v>
       </c>
@@ -11389,7 +11395,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" s="14" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="36" t="s">
         <v>618</v>
       </c>
@@ -11429,7 +11435,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="36" t="s">
         <v>622</v>
       </c>
@@ -11469,7 +11475,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="36" t="s">
         <v>626</v>
       </c>
@@ -11509,7 +11515,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" s="11" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="36" t="s">
         <v>630</v>
       </c>
@@ -11549,7 +11555,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" s="11" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="36" t="s">
         <v>634</v>
       </c>
@@ -11589,7 +11595,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" s="11" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="36" t="s">
         <v>638</v>
       </c>
@@ -11629,7 +11635,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="11" customFormat="1" ht="131" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" s="11" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="36" t="s">
         <v>642</v>
       </c>
@@ -11669,7 +11675,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" s="11" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="36" t="s">
         <v>646</v>
       </c>
@@ -11709,7 +11715,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>650</v>
       </c>
@@ -11730,7 +11736,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="19"/>
     </row>
-    <row r="118" spans="1:14" ht="80" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>334</v>
       </c>
@@ -11773,7 +11779,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>653</v>
       </c>
@@ -11814,7 +11820,7 @@
       </c>
       <c r="N119" s="43"/>
     </row>
-    <row r="120" spans="1:14" ht="80" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>656</v>
       </c>
@@ -11855,7 +11861,7 @@
       </c>
       <c r="N120" s="43"/>
     </row>
-    <row r="121" spans="1:14" ht="112" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>659</v>
       </c>
@@ -11896,7 +11902,7 @@
       </c>
       <c r="N121" s="43"/>
     </row>
-    <row r="122" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>663</v>
       </c>
@@ -11937,7 +11943,7 @@
       </c>
       <c r="N122" s="43"/>
     </row>
-    <row r="123" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>666</v>
       </c>
@@ -11978,7 +11984,7 @@
       </c>
       <c r="N123" s="43"/>
     </row>
-    <row r="124" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>670</v>
       </c>
@@ -12019,7 +12025,7 @@
       </c>
       <c r="N124" s="43"/>
     </row>
-    <row r="125" spans="1:14" ht="272" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" ht="255" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>673</v>
       </c>
@@ -12060,7 +12066,7 @@
       </c>
       <c r="N125" s="43"/>
     </row>
-    <row r="126" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
         <v>677</v>
       </c>
@@ -12081,7 +12087,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="19"/>
     </row>
-    <row r="127" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="21" t="s">
         <v>678</v>
       </c>
@@ -12121,7 +12127,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="14" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" s="14" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="21" t="s">
         <v>684</v>
       </c>
@@ -12161,7 +12167,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="14" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" s="14" customFormat="1" ht="57" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="21" t="s">
         <v>688</v>
       </c>
@@ -12201,7 +12207,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" s="14" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="21" t="s">
         <v>693</v>
       </c>
@@ -12241,7 +12247,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="14" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="21" t="s">
         <v>697</v>
       </c>
@@ -12281,7 +12287,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" s="14" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="21" t="s">
         <v>701</v>
       </c>
@@ -12321,7 +12327,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="14" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" s="14" customFormat="1" ht="23.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="21" t="s">
         <v>705</v>
       </c>
@@ -12361,7 +12367,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="14" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" s="14" customFormat="1" ht="23.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="21" t="s">
         <v>709</v>
       </c>
@@ -12401,7 +12407,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="135" spans="1:12" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="1:12" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:L134" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
@@ -12445,22 +12451,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334282CC-DFA0-48FD-AD80-F17EF0D3CFB1}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>770</v>
       </c>
@@ -12483,7 +12489,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -12506,7 +12512,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -12526,7 +12532,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>220</v>
       </c>
@@ -12549,7 +12555,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -12572,7 +12578,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>229</v>
       </c>
@@ -12592,7 +12598,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -12612,7 +12618,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -12632,7 +12638,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -12652,7 +12658,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -12669,7 +12675,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -12686,7 +12692,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -12703,7 +12709,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>255</v>
       </c>
@@ -12726,7 +12732,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>259</v>
       </c>
@@ -12749,7 +12755,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>264</v>
       </c>
@@ -12772,7 +12778,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -12792,7 +12798,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>269</v>
       </c>
@@ -12809,7 +12815,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -12826,7 +12832,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -12843,7 +12849,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>288</v>
       </c>
@@ -12866,7 +12872,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -12889,7 +12895,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>298</v>
       </c>
@@ -12912,7 +12918,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -12929,7 +12935,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>307</v>
       </c>
@@ -12949,7 +12955,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -12966,7 +12972,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>317</v>
       </c>
@@ -12983,7 +12989,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>322</v>
       </c>
@@ -13000,7 +13006,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -13023,7 +13029,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>331</v>
       </c>
@@ -13046,7 +13052,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -13066,7 +13072,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>339</v>
       </c>
@@ -13089,7 +13095,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>339</v>
       </c>
@@ -13109,7 +13115,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>347</v>
       </c>
@@ -13132,7 +13138,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>350</v>
       </c>
@@ -13155,7 +13161,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>350</v>
       </c>
@@ -13175,7 +13181,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>358</v>
       </c>
@@ -13195,7 +13201,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>362</v>
       </c>
@@ -13215,7 +13221,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>366</v>
       </c>
@@ -13235,7 +13241,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>370</v>
       </c>
@@ -13258,7 +13264,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>370</v>
       </c>
@@ -13278,7 +13284,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>378</v>
       </c>
@@ -13295,7 +13301,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>383</v>
       </c>
@@ -13315,7 +13321,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>388</v>
       </c>
@@ -13332,7 +13338,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>393</v>
       </c>
@@ -13349,7 +13355,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>397</v>
       </c>
@@ -13366,7 +13372,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>397</v>
       </c>
@@ -13383,7 +13389,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>405</v>
       </c>
@@ -13400,7 +13406,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>410</v>
       </c>
@@ -13420,7 +13426,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>414</v>
       </c>
@@ -13440,7 +13446,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>419</v>
       </c>
@@ -13457,7 +13463,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>425</v>
       </c>
@@ -13477,7 +13483,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>429</v>
       </c>
@@ -13494,7 +13500,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>433</v>
       </c>
@@ -13514,7 +13520,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -13531,7 +13537,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>441</v>
       </c>
@@ -13551,7 +13557,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>446</v>
       </c>
@@ -13571,7 +13577,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>449</v>
       </c>
@@ -13588,7 +13594,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>454</v>
       </c>
@@ -13605,7 +13611,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -13625,7 +13631,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>463</v>
       </c>
@@ -13645,7 +13651,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>466</v>
       </c>
@@ -13665,7 +13671,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>471</v>
       </c>
@@ -13685,7 +13691,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>475</v>
       </c>
@@ -13702,7 +13708,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>481</v>
       </c>
@@ -13725,7 +13731,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>485</v>
       </c>
@@ -13742,7 +13748,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>489</v>
       </c>
@@ -13759,7 +13765,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>493</v>
       </c>
@@ -13782,7 +13788,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>496</v>
       </c>
@@ -13799,7 +13805,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>502</v>
       </c>
@@ -13819,7 +13825,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>504</v>
       </c>
@@ -13839,7 +13845,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>507</v>
       </c>
@@ -13853,13 +13859,13 @@
         <v>193</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>775</v>
       </c>
       <c r="F71" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>512</v>
       </c>
@@ -13882,7 +13888,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>517</v>
       </c>
@@ -13896,13 +13902,13 @@
         <v>193</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>776</v>
       </c>
       <c r="F73" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>521</v>
       </c>
@@ -13922,7 +13928,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>524</v>
       </c>
@@ -13942,7 +13948,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>527</v>
       </c>
@@ -13962,7 +13968,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>531</v>
       </c>
@@ -13982,7 +13988,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>535</v>
       </c>
@@ -14002,7 +14008,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>539</v>
       </c>
@@ -14022,7 +14028,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>542</v>
       </c>
@@ -14042,7 +14048,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>547</v>
       </c>
@@ -14062,7 +14068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>553</v>
       </c>
@@ -14073,13 +14079,13 @@
         <v>197</v>
       </c>
       <c r="E82" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F82" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>557</v>
       </c>
@@ -14096,7 +14102,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>561</v>
       </c>
@@ -14113,7 +14119,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>565</v>
       </c>
@@ -14130,7 +14136,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>570</v>
       </c>
@@ -14147,7 +14153,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>575</v>
       </c>
@@ -14164,7 +14170,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>579</v>
       </c>
@@ -14181,7 +14187,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>585</v>
       </c>
@@ -14198,7 +14204,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>589</v>
       </c>
@@ -14215,7 +14221,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>593</v>
       </c>
@@ -14232,7 +14238,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>597</v>
       </c>
@@ -14249,7 +14255,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>601</v>
       </c>
@@ -14266,7 +14272,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>605</v>
       </c>
@@ -14283,7 +14289,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>610</v>
       </c>
@@ -14300,7 +14306,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>614</v>
       </c>
@@ -14317,7 +14323,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>618</v>
       </c>
@@ -14334,7 +14340,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>622</v>
       </c>
@@ -14351,7 +14357,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>626</v>
       </c>
@@ -14368,7 +14374,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>630</v>
       </c>
@@ -14385,7 +14391,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>634</v>
       </c>
@@ -14402,7 +14408,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>638</v>
       </c>
@@ -14419,7 +14425,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>642</v>
       </c>
@@ -14436,7 +14442,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>646</v>
       </c>
@@ -14453,7 +14459,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>334</v>
       </c>
@@ -14473,7 +14479,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>653</v>
       </c>
@@ -14493,7 +14499,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>656</v>
       </c>
@@ -14513,7 +14519,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>659</v>
       </c>
@@ -14533,7 +14539,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>663</v>
       </c>
@@ -14553,7 +14559,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>666</v>
       </c>
@@ -14573,7 +14579,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>670</v>
       </c>
@@ -14593,7 +14599,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>673</v>
       </c>
@@ -14616,7 +14622,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>678</v>
       </c>
@@ -14633,7 +14639,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>684</v>
       </c>
@@ -14650,7 +14656,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>688</v>
       </c>
@@ -14667,7 +14673,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>693</v>
       </c>
@@ -14684,7 +14690,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>697</v>
       </c>
@@ -14701,7 +14707,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>701</v>
       </c>
@@ -14718,7 +14724,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>705</v>
       </c>
@@ -14735,7 +14741,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>709</v>
       </c>

--- a/Global/OMIS/OMIS_Headers.xlsx
+++ b/Global/OMIS/OMIS_Headers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51000689\Documents\GitHub\clinical-data-collection\Global\OMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4ADF25-896C-4CB9-B1EC-5BAFE24D9C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371A469C-01BE-45B3-9D4E-7CF719BE7C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19980" yWindow="1710" windowWidth="28770" windowHeight="15570" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
+    <workbookView minimized="1" xWindow="27495" yWindow="90" windowWidth="30105" windowHeight="23085" firstSheet="3" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
   </bookViews>
   <sheets>
     <sheet name="Short" sheetId="1" r:id="rId1"/>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="818">
   <si>
     <t>PerformanceStatus</t>
   </si>
@@ -3602,9 +3602,6 @@
     <t>ToxicityVomitingCode</t>
   </si>
   <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>Mandatory</t>
   </si>
   <si>
@@ -3636,13 +3633,160 @@
   </si>
   <si>
     <t>SystemicTherapyProtocolCycleNumber (NOT315)</t>
+  </si>
+  <si>
+    <t>Completeness</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Mandatory must be present</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No (not all patient have one)</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>Yes - but only public site</t>
+  </si>
+  <si>
+    <t>Yes - default to 01/01/9999</t>
+  </si>
+  <si>
+    <t>Yes - Low value??</t>
+  </si>
+  <si>
+    <t>Yes?</t>
+  </si>
+  <si>
+    <t>Yes (poor QA)</t>
+  </si>
+  <si>
+    <t>Priority/Category</t>
+  </si>
+  <si>
+    <t>Valid Date</t>
+  </si>
+  <si>
+    <t>Check for 1,2,3,4,5. Unknown/Unmapped/At Sea/Undefined.
+Could consider a 4character length check.
+Should we build provision for a Text Based COB?</t>
+  </si>
+  <si>
+    <t>4 Characters?</t>
+  </si>
+  <si>
+    <t>98,99,0 flag as quality issue?</t>
+  </si>
+  <si>
+    <t>Item QA Check</t>
+  </si>
+  <si>
+    <t>Dataset QA</t>
+  </si>
+  <si>
+    <t>9 is poor quality - flag the proportion.</t>
+  </si>
+  <si>
+    <t>% of 9 across the cohort? Monitor mapping issues</t>
+  </si>
+  <si>
+    <t>Startswith  MED (10 Characters)</t>
+  </si>
+  <si>
+    <t>4 Characters</t>
+  </si>
+  <si>
+    <t>Consider copying CacnerId to here is private?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Flag if reportable: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Table.AddColumn(ReorderedColumns, "QA_FILTERED", each if [CancerSiteCodeID] = "" then null else if Text.StartsWith([CancerSiteCodeID], "C44.5") then null else if Text.Contains([CancerSiteCodeID], "C44") then "ICD NOT Reportable; " else if Text.StartsWith([CancerSiteCodeID], "C") then null else if Text.Contains([CancerSiteCodeID], "D02") then null else if Text.Contains([CancerSiteCodeID], "D03") then null else if Text.Contains([CancerSiteCodeID], "D05") then null else if Text.Contains([CancerSiteCodeID], "D09") then null else if [CancerSiteCodeID] = null then null else "ICD NOT Reportable; ")</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Z71.1 is a cheat; Need to flag as missing.
+</t>
+  </si>
+  <si>
+    <t>May want to assess % of 9 vs other categories.</t>
+  </si>
+  <si>
+    <t>**later look at diagnosis and optional laterality flag. i.e. Breast should have Laterality</t>
+  </si>
+  <si>
+    <t>Flag 9 (unknown)</t>
+  </si>
+  <si>
+    <t>Flag if missing, QA around format, may need to strip the "/" 5 characters</t>
+  </si>
+  <si>
+    <t>Always 9.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Flag missing</t>
+  </si>
+  <si>
+    <t>Flag if missing, we will need to map the various options</t>
+  </si>
+  <si>
+    <t>Mapping to 9 should be flagged as unmapped.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% of mapping/unmapped </t>
+  </si>
+  <si>
+    <t>Flag if missing.</t>
+  </si>
+  <si>
+    <t>Date Valid</t>
+  </si>
+  <si>
+    <t>Need to understand this data more…</t>
+  </si>
+  <si>
+    <t>quality check against eviQ listing.</t>
+  </si>
+  <si>
+    <t>Flag 9 as missing, should be 1,2,3,4</t>
+  </si>
+  <si>
+    <t>Cat 1= Critical; 2= High; 3=Low Priority/NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3743,8 +3887,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3783,6 +3934,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -3934,12 +4090,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4066,8 +4223,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
@@ -12449,10 +12614,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334282CC-DFA0-48FD-AD80-F17EF0D3CFB1}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12463,33 +12628,49 @@
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" customWidth="1"/>
+    <col min="10" max="10" width="87.140625" customWidth="1"/>
+    <col min="11" max="11" width="73.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>770</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="C1" s="42" t="s">
         <v>771</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>772</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>192</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F1" s="42" t="s">
         <v>204</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>817</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>777</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>793</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -12509,10 +12690,13 @@
         <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+      <c r="I2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -12531,8 +12715,11 @@
       <c r="F3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>220</v>
       </c>
@@ -12552,10 +12739,13 @@
         <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -12575,10 +12765,13 @@
         <v>224</v>
       </c>
       <c r="G5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>229</v>
       </c>
@@ -12597,8 +12790,11 @@
       <c r="F6" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -12617,8 +12813,11 @@
       <c r="F7" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -12637,8 +12836,11 @@
       <c r="F8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -12657,8 +12859,11 @@
       <c r="F9" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -12674,8 +12879,11 @@
       <c r="F10" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -12691,8 +12899,11 @@
       <c r="F11" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -12708,8 +12919,11 @@
       <c r="F12" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>255</v>
       </c>
@@ -12729,10 +12943,13 @@
         <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I13" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>259</v>
       </c>
@@ -12752,10 +12969,16 @@
         <v>260</v>
       </c>
       <c r="G14" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I14" t="s">
+        <v>780</v>
+      </c>
+      <c r="J14" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>264</v>
       </c>
@@ -12775,10 +12998,16 @@
         <v>265</v>
       </c>
       <c r="G15" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I15" t="s">
+        <v>780</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -12797,8 +13026,11 @@
       <c r="F16" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>269</v>
       </c>
@@ -12814,8 +13046,11 @@
       <c r="F17" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -12831,8 +13066,11 @@
       <c r="F18" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -12848,8 +13086,11 @@
       <c r="F19" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>288</v>
       </c>
@@ -12869,10 +13110,13 @@
         <v>289</v>
       </c>
       <c r="G20" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I20" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -12892,10 +13136,16 @@
         <v>294</v>
       </c>
       <c r="G21" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I21" t="s">
+        <v>780</v>
+      </c>
+      <c r="J21" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>298</v>
       </c>
@@ -12915,10 +13165,16 @@
         <v>299</v>
       </c>
       <c r="G22" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I22" t="s">
+        <v>780</v>
+      </c>
+      <c r="J22" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -12934,8 +13190,11 @@
       <c r="F23" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>307</v>
       </c>
@@ -12954,8 +13213,17 @@
       <c r="F24" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>780</v>
+      </c>
+      <c r="J24" t="s">
+        <v>795</v>
+      </c>
+      <c r="K24" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -12971,8 +13239,11 @@
       <c r="F25" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>317</v>
       </c>
@@ -12988,8 +13259,11 @@
       <c r="F26" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>322</v>
       </c>
@@ -13005,8 +13279,11 @@
       <c r="F27" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -13026,10 +13303,16 @@
         <v>328</v>
       </c>
       <c r="G28" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I28" t="s">
+        <v>780</v>
+      </c>
+      <c r="J28" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>331</v>
       </c>
@@ -13049,10 +13332,13 @@
         <v>332</v>
       </c>
       <c r="G29" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I29" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -13068,11 +13354,11 @@
       <c r="F30" t="s">
         <v>335</v>
       </c>
-      <c r="G30" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>339</v>
       </c>
@@ -13092,10 +13378,16 @@
         <v>340</v>
       </c>
       <c r="G31" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I31" t="s">
+        <v>783</v>
+      </c>
+      <c r="J31" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>339</v>
       </c>
@@ -13114,8 +13406,17 @@
       <c r="F32" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>768</v>
+      </c>
+      <c r="I32" t="s">
+        <v>766</v>
+      </c>
+      <c r="J32" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>347</v>
       </c>
@@ -13135,10 +13436,13 @@
         <v>348</v>
       </c>
       <c r="G33" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I33" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>350</v>
       </c>
@@ -13158,10 +13462,19 @@
         <v>351</v>
       </c>
       <c r="G34" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I34" t="s">
+        <v>780</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="K34" s="45" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>350</v>
       </c>
@@ -13180,8 +13493,11 @@
       <c r="F35" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>358</v>
       </c>
@@ -13200,8 +13516,17 @@
       <c r="F36" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>780</v>
+      </c>
+      <c r="J36" t="s">
+        <v>804</v>
+      </c>
+      <c r="K36" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>362</v>
       </c>
@@ -13220,8 +13545,14 @@
       <c r="F37" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>778</v>
+      </c>
+      <c r="J37" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>366</v>
       </c>
@@ -13240,8 +13571,11 @@
       <c r="F38" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>370</v>
       </c>
@@ -13261,10 +13595,16 @@
         <v>371</v>
       </c>
       <c r="G39" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+      <c r="I39" t="s">
+        <v>780</v>
+      </c>
+      <c r="J39" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>370</v>
       </c>
@@ -13283,8 +13623,11 @@
       <c r="F40" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>378</v>
       </c>
@@ -13300,8 +13643,11 @@
       <c r="F41" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>383</v>
       </c>
@@ -13320,8 +13666,14 @@
       <c r="F42" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>807</v>
+      </c>
+      <c r="J42" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>388</v>
       </c>
@@ -13337,8 +13689,11 @@
       <c r="F43" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>393</v>
       </c>
@@ -13354,8 +13709,11 @@
       <c r="F44" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>397</v>
       </c>
@@ -13371,8 +13729,11 @@
       <c r="F45" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>397</v>
       </c>
@@ -13388,8 +13749,11 @@
       <c r="F46" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>405</v>
       </c>
@@ -13405,8 +13769,11 @@
       <c r="F47" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>410</v>
       </c>
@@ -13425,8 +13792,14 @@
       <c r="F48" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>780</v>
+      </c>
+      <c r="J48" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>414</v>
       </c>
@@ -13445,8 +13818,14 @@
       <c r="F49" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>780</v>
+      </c>
+      <c r="J49" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>419</v>
       </c>
@@ -13462,8 +13841,11 @@
       <c r="F50" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>425</v>
       </c>
@@ -13482,8 +13864,14 @@
       <c r="F51" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>780</v>
+      </c>
+      <c r="J51" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>429</v>
       </c>
@@ -13499,8 +13887,11 @@
       <c r="F52" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>433</v>
       </c>
@@ -13519,8 +13910,14 @@
       <c r="F53" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>780</v>
+      </c>
+      <c r="J53" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -13536,8 +13933,11 @@
       <c r="F54" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>441</v>
       </c>
@@ -13556,8 +13956,11 @@
       <c r="F55" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>446</v>
       </c>
@@ -13576,8 +13979,11 @@
       <c r="F56" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>449</v>
       </c>
@@ -13593,8 +13999,11 @@
       <c r="F57" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>454</v>
       </c>
@@ -13610,8 +14019,11 @@
       <c r="F58" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -13630,8 +14042,11 @@
       <c r="F59" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>463</v>
       </c>
@@ -13650,8 +14065,11 @@
       <c r="F60" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>466</v>
       </c>
@@ -13670,8 +14088,11 @@
       <c r="F61" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>471</v>
       </c>
@@ -13690,8 +14111,11 @@
       <c r="F62" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>475</v>
       </c>
@@ -13707,8 +14131,11 @@
       <c r="F63" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>481</v>
       </c>
@@ -13728,10 +14155,19 @@
         <v>482</v>
       </c>
       <c r="G64" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I64" t="s">
+        <v>780</v>
+      </c>
+      <c r="J64" t="s">
+        <v>810</v>
+      </c>
+      <c r="K64" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>485</v>
       </c>
@@ -13747,8 +14183,11 @@
       <c r="F65" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>489</v>
       </c>
@@ -13764,8 +14203,11 @@
       <c r="F66" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>493</v>
       </c>
@@ -13785,10 +14227,16 @@
         <v>494</v>
       </c>
       <c r="G67" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+      <c r="I67" t="s">
+        <v>786</v>
+      </c>
+      <c r="J67" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>496</v>
       </c>
@@ -13804,8 +14252,11 @@
       <c r="F68" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>502</v>
       </c>
@@ -13824,8 +14275,14 @@
       <c r="F69" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>780</v>
+      </c>
+      <c r="J69" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>504</v>
       </c>
@@ -13844,8 +14301,11 @@
       <c r="F70" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>507</v>
       </c>
@@ -13859,13 +14319,19 @@
         <v>193</v>
       </c>
       <c r="E71" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F71" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>780</v>
+      </c>
+      <c r="J71" s="46" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>512</v>
       </c>
@@ -13885,10 +14351,16 @@
         <v>513</v>
       </c>
       <c r="G72" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I72" t="s">
+        <v>780</v>
+      </c>
+      <c r="J72" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>517</v>
       </c>
@@ -13902,13 +14374,19 @@
         <v>193</v>
       </c>
       <c r="E73" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F73" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>780</v>
+      </c>
+      <c r="J73" s="46" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>521</v>
       </c>
@@ -13927,8 +14405,11 @@
       <c r="F74" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>524</v>
       </c>
@@ -13947,8 +14428,11 @@
       <c r="F75" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>527</v>
       </c>
@@ -13967,8 +14451,11 @@
       <c r="F76" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>531</v>
       </c>
@@ -13987,8 +14474,11 @@
       <c r="F77" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>535</v>
       </c>
@@ -14002,13 +14492,16 @@
         <v>195</v>
       </c>
       <c r="E78" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F78" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>539</v>
       </c>
@@ -14027,8 +14520,11 @@
       <c r="F79" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>542</v>
       </c>
@@ -14047,8 +14543,11 @@
       <c r="F80" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>547</v>
       </c>
@@ -14067,8 +14566,11 @@
       <c r="F81" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>553</v>
       </c>
@@ -14079,13 +14581,16 @@
         <v>197</v>
       </c>
       <c r="E82" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F82" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>557</v>
       </c>
@@ -14101,8 +14606,11 @@
       <c r="F83" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>561</v>
       </c>
@@ -14118,8 +14626,11 @@
       <c r="F84" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>565</v>
       </c>
@@ -14135,8 +14646,11 @@
       <c r="F85" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>570</v>
       </c>
@@ -14152,8 +14666,11 @@
       <c r="F86" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>575</v>
       </c>
@@ -14169,8 +14686,11 @@
       <c r="F87" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>579</v>
       </c>
@@ -14186,8 +14706,11 @@
       <c r="F88" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>585</v>
       </c>
@@ -14203,8 +14726,11 @@
       <c r="F89" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>589</v>
       </c>
@@ -14220,8 +14746,11 @@
       <c r="F90" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>593</v>
       </c>
@@ -14237,8 +14766,11 @@
       <c r="F91" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>597</v>
       </c>
@@ -14254,8 +14786,11 @@
       <c r="F92" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>601</v>
       </c>
@@ -14271,8 +14806,11 @@
       <c r="F93" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>605</v>
       </c>
@@ -14288,8 +14826,11 @@
       <c r="F94" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>610</v>
       </c>
@@ -14305,8 +14846,11 @@
       <c r="F95" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>614</v>
       </c>
@@ -14322,8 +14866,11 @@
       <c r="F96" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>618</v>
       </c>
@@ -14339,8 +14886,11 @@
       <c r="F97" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>622</v>
       </c>
@@ -14356,8 +14906,11 @@
       <c r="F98" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>626</v>
       </c>
@@ -14373,8 +14926,11 @@
       <c r="F99" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>630</v>
       </c>
@@ -14390,8 +14946,11 @@
       <c r="F100" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>634</v>
       </c>
@@ -14407,8 +14966,11 @@
       <c r="F101" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>638</v>
       </c>
@@ -14424,8 +14986,11 @@
       <c r="F102" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>642</v>
       </c>
@@ -14441,8 +15006,11 @@
       <c r="F103" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>646</v>
       </c>
@@ -14458,8 +15026,11 @@
       <c r="F104" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>334</v>
       </c>
@@ -14478,8 +15049,14 @@
       <c r="F105" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>787</v>
+      </c>
+      <c r="J105" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>653</v>
       </c>
@@ -14498,8 +15075,14 @@
       <c r="F106" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>780</v>
+      </c>
+      <c r="J106" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>656</v>
       </c>
@@ -14518,8 +15101,11 @@
       <c r="F107" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>659</v>
       </c>
@@ -14538,8 +15124,11 @@
       <c r="F108" s="1" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>663</v>
       </c>
@@ -14558,8 +15147,11 @@
       <c r="F109" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>666</v>
       </c>
@@ -14578,8 +15170,11 @@
       <c r="F110" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>670</v>
       </c>
@@ -14598,8 +15193,17 @@
       <c r="F111" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>767</v>
+      </c>
+      <c r="I111" t="s">
+        <v>780</v>
+      </c>
+      <c r="J111" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>673</v>
       </c>
@@ -14619,10 +15223,16 @@
         <v>674</v>
       </c>
       <c r="G112" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+      <c r="I112" t="s">
+        <v>780</v>
+      </c>
+      <c r="J112" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>678</v>
       </c>
@@ -14638,8 +15248,11 @@
       <c r="F113" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>684</v>
       </c>
@@ -14655,8 +15268,11 @@
       <c r="F114" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>688</v>
       </c>
@@ -14672,8 +15288,11 @@
       <c r="F115" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I115" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>693</v>
       </c>
@@ -14689,8 +15308,11 @@
       <c r="F116" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I116" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>697</v>
       </c>
@@ -14706,8 +15328,11 @@
       <c r="F117" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>701</v>
       </c>
@@ -14723,8 +15348,11 @@
       <c r="F118" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>705</v>
       </c>
@@ -14740,8 +15368,11 @@
       <c r="F119" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>709</v>
       </c>
@@ -14756,6 +15387,9 @@
       </c>
       <c r="F120" t="s">
         <v>710</v>
+      </c>
+      <c r="I120" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>

--- a/Global/OMIS/OMIS_Headers.xlsx
+++ b/Global/OMIS/OMIS_Headers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51000689\Documents\GitHub\clinical-data-collection\Global\OMIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jhreportscomau-my.sharepoint.com/personal/josh_jhreports_com_au/Documents/JHR ONSITE/Git_Scripts/DataConnect/OMIS/Global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371A469C-01BE-45B3-9D4E-7CF719BE7C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{16EEECB5-2466-454E-AE57-9CEF0F0B2B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73A57E03-04B1-4F42-BC34-D2BD9C60C327}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="27495" yWindow="90" windowWidth="30105" windowHeight="23085" firstSheet="3" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
+    <workbookView xWindow="22560" yWindow="2020" windowWidth="28160" windowHeight="23200" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
   </bookViews>
   <sheets>
     <sheet name="Short" sheetId="1" r:id="rId1"/>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="776">
   <si>
     <t>PerformanceStatus</t>
   </si>
@@ -3602,6 +3602,9 @@
     <t>ToxicityVomitingCode</t>
   </si>
   <si>
+    <t>QA</t>
+  </si>
+  <si>
     <t>Mandatory</t>
   </si>
   <si>
@@ -3626,167 +3629,14 @@
     <t>NOtificationEpisodeChemoEndDate</t>
   </si>
   <si>
-    <t>AntiNeoplasticCycles (NOT304)</t>
-  </si>
-  <si>
-    <t>NotificationEpisodeChemoCycle (NOT338)</t>
-  </si>
-  <si>
-    <t>SystemicTherapyProtocolCycleNumber (NOT315)</t>
-  </si>
-  <si>
-    <t>Completeness</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Mandatory must be present</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No (not all patient have one)</t>
-  </si>
-  <si>
-    <t>Ignore</t>
-  </si>
-  <si>
-    <t>Yes - but only public site</t>
-  </si>
-  <si>
-    <t>Yes - default to 01/01/9999</t>
-  </si>
-  <si>
-    <t>Yes - Low value??</t>
-  </si>
-  <si>
-    <t>Yes?</t>
-  </si>
-  <si>
-    <t>Yes (poor QA)</t>
-  </si>
-  <si>
-    <t>Priority/Category</t>
-  </si>
-  <si>
-    <t>Valid Date</t>
-  </si>
-  <si>
-    <t>Check for 1,2,3,4,5. Unknown/Unmapped/At Sea/Undefined.
-Could consider a 4character length check.
-Should we build provision for a Text Based COB?</t>
-  </si>
-  <si>
-    <t>4 Characters?</t>
-  </si>
-  <si>
-    <t>98,99,0 flag as quality issue?</t>
-  </si>
-  <si>
-    <t>Item QA Check</t>
-  </si>
-  <si>
-    <t>Dataset QA</t>
-  </si>
-  <si>
-    <t>9 is poor quality - flag the proportion.</t>
-  </si>
-  <si>
-    <t>% of 9 across the cohort? Monitor mapping issues</t>
-  </si>
-  <si>
-    <t>Startswith  MED (10 Characters)</t>
-  </si>
-  <si>
-    <t>4 Characters</t>
-  </si>
-  <si>
-    <t>Consider copying CacnerId to here is private?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Flag if reportable: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Table.AddColumn(ReorderedColumns, "QA_FILTERED", each if [CancerSiteCodeID] = "" then null else if Text.StartsWith([CancerSiteCodeID], "C44.5") then null else if Text.Contains([CancerSiteCodeID], "C44") then "ICD NOT Reportable; " else if Text.StartsWith([CancerSiteCodeID], "C") then null else if Text.Contains([CancerSiteCodeID], "D02") then null else if Text.Contains([CancerSiteCodeID], "D03") then null else if Text.Contains([CancerSiteCodeID], "D05") then null else if Text.Contains([CancerSiteCodeID], "D09") then null else if [CancerSiteCodeID] = null then null else "ICD NOT Reportable; ")</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Z71.1 is a cheat; Need to flag as missing.
-</t>
-  </si>
-  <si>
-    <t>May want to assess % of 9 vs other categories.</t>
-  </si>
-  <si>
-    <t>**later look at diagnosis and optional laterality flag. i.e. Breast should have Laterality</t>
-  </si>
-  <si>
-    <t>Flag 9 (unknown)</t>
-  </si>
-  <si>
-    <t>Flag if missing, QA around format, may need to strip the "/" 5 characters</t>
-  </si>
-  <si>
-    <t>Always 9.</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Flag missing</t>
-  </si>
-  <si>
-    <t>Flag if missing, we will need to map the various options</t>
-  </si>
-  <si>
-    <t>Mapping to 9 should be flagged as unmapped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% of mapping/unmapped </t>
-  </si>
-  <si>
-    <t>Flag if missing.</t>
-  </si>
-  <si>
-    <t>Date Valid</t>
-  </si>
-  <si>
-    <t>Need to understand this data more…</t>
-  </si>
-  <si>
-    <t>quality check against eviQ listing.</t>
-  </si>
-  <si>
-    <t>Flag 9 as missing, should be 1,2,3,4</t>
-  </si>
-  <si>
-    <t>Cat 1= Critical; 2= High; 3=Low Priority/NA</t>
+    <t>SystemicTherapyProtocolCycleNumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3887,15 +3737,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3934,11 +3777,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -4090,13 +3928,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4223,16 +4060,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
@@ -4251,7 +4080,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="EROD 2.0 vs OMIS Spec 3.4 OHR"/>
@@ -5789,13 +5618,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -5803,7 +5632,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5811,7 +5640,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5819,7 +5648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5827,7 +5656,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5835,7 +5664,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5843,7 +5672,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5851,7 +5680,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5859,7 +5688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5867,7 +5696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5875,7 +5704,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5883,7 +5712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5891,7 +5720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5899,7 +5728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5907,7 +5736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5915,7 +5744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5923,7 +5752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5931,7 +5760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5939,7 +5768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5947,7 +5776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5955,7 +5784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5963,7 +5792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5971,7 +5800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5979,7 +5808,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5987,7 +5816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5995,7 +5824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6003,7 +5832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6011,7 +5840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6019,7 +5848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6027,7 +5856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6035,7 +5864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6043,7 +5872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6051,7 +5880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6059,7 +5888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6067,7 +5896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6075,7 +5904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6083,7 +5912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6091,7 +5920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6099,7 +5928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6107,7 +5936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6115,7 +5944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6123,7 +5952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6131,7 +5960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6139,7 +5968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6147,7 +5976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6155,7 +5984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6163,7 +5992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6171,7 +6000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6179,7 +6008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6187,7 +6016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6195,7 +6024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6203,7 +6032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6211,7 +6040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6219,7 +6048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6227,7 +6056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6235,7 +6064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6243,7 +6072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6251,7 +6080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6259,7 +6088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6267,7 +6096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6275,7 +6104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6283,7 +6112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6291,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6313,12 +6142,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -6326,7 +6155,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6334,7 +6163,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6342,7 +6171,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6350,7 +6179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6358,7 +6187,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6366,7 +6195,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6374,7 +6203,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6382,7 +6211,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6390,7 +6219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6398,7 +6227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6406,7 +6235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6414,7 +6243,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6422,7 +6251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6430,7 +6259,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6438,7 +6267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6446,7 +6275,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6454,7 +6283,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6462,7 +6291,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6470,7 +6299,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6478,7 +6307,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6486,7 +6315,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6494,7 +6323,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6502,7 +6331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6510,7 +6339,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6518,7 +6347,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6526,7 +6355,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6534,7 +6363,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6542,7 +6371,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6550,7 +6379,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6558,7 +6387,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6566,7 +6395,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6574,7 +6403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6582,7 +6411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6590,7 +6419,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6598,7 +6427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6606,7 +6435,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6614,7 +6443,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6622,7 +6451,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6630,7 +6459,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6638,7 +6467,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6646,7 +6475,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6654,7 +6483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6662,7 +6491,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6670,7 +6499,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6678,7 +6507,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6686,7 +6515,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6694,7 +6523,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6702,7 +6531,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6710,7 +6539,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6718,7 +6547,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6726,7 +6555,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6734,7 +6563,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6742,7 +6571,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6750,7 +6579,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6758,7 +6587,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6766,7 +6595,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6774,7 +6603,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6782,7 +6611,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6790,7 +6619,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6798,7 +6627,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6806,7 +6635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6814,7 +6643,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6822,7 +6651,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6830,7 +6659,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6838,7 +6667,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6846,7 +6675,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6854,7 +6683,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6862,7 +6691,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6870,7 +6699,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6878,7 +6707,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6886,7 +6715,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6894,7 +6723,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6902,7 +6731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6910,7 +6739,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6918,7 +6747,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6926,7 +6755,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6934,7 +6763,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6942,7 +6771,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6950,7 +6779,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6958,7 +6787,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6966,7 +6795,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6974,7 +6803,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6982,7 +6811,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6990,7 +6819,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6998,7 +6827,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7006,7 +6835,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7014,7 +6843,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7022,7 +6851,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7030,7 +6859,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7038,7 +6867,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7046,7 +6875,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7054,7 +6883,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7062,7 +6891,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7070,7 +6899,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7078,7 +6907,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7086,7 +6915,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7094,7 +6923,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7102,7 +6931,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7110,7 +6939,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7118,7 +6947,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7126,7 +6955,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7134,7 +6963,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7142,7 +6971,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7150,7 +6979,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7158,7 +6987,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7166,7 +6995,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7174,7 +7003,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7182,7 +7011,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7190,7 +7019,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7198,7 +7027,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7206,7 +7035,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7214,7 +7043,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7222,7 +7051,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7230,7 +7059,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7238,7 +7067,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7246,7 +7075,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7254,7 +7083,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7262,7 +7091,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7270,7 +7099,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7278,7 +7107,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7286,7 +7115,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7294,7 +7123,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7302,7 +7131,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7310,7 +7139,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7318,7 +7147,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7326,7 +7155,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7334,7 +7163,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7342,7 +7171,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7350,7 +7179,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7358,7 +7187,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7366,7 +7195,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7392,23 +7221,23 @@
       <selection pane="bottomLeft" activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" customWidth="1"/>
-    <col min="11" max="11" width="62.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="54.7109375" customWidth="1"/>
-    <col min="13" max="13" width="98.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="95.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5" customWidth="1"/>
+    <col min="11" max="11" width="62.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" customWidth="1"/>
+    <col min="13" max="13" width="98.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="95.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>199</v>
       </c>
@@ -7452,7 +7281,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="80" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -7495,7 +7324,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>213</v>
       </c>
@@ -7516,7 +7345,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -7556,7 +7385,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>220</v>
       </c>
@@ -7593,7 +7422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>223</v>
       </c>
@@ -7633,7 +7462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>228</v>
       </c>
@@ -7654,7 +7483,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -7691,7 +7520,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>234</v>
       </c>
@@ -7728,7 +7557,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>237</v>
       </c>
@@ -7768,7 +7597,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -7805,7 +7634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>242</v>
       </c>
@@ -7843,7 +7672,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>247</v>
       </c>
@@ -7881,7 +7710,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>251</v>
       </c>
@@ -7919,7 +7748,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="112" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -7962,7 +7791,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>259</v>
       </c>
@@ -8002,7 +7831,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>264</v>
       </c>
@@ -8045,7 +7874,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -8085,7 +7914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>269</v>
       </c>
@@ -8125,7 +7954,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>269</v>
       </c>
@@ -8165,7 +7994,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>269</v>
       </c>
@@ -8205,7 +8034,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>288</v>
       </c>
@@ -8248,7 +8077,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>293</v>
       </c>
@@ -8291,7 +8120,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="240" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="256" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>298</v>
       </c>
@@ -8334,7 +8163,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="11" customFormat="1" ht="180.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="11" customFormat="1" ht="209" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>303</v>
       </c>
@@ -8374,7 +8203,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="144" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>307</v>
       </c>
@@ -8420,7 +8249,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="11" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>311</v>
       </c>
@@ -8441,7 +8270,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="1:14" s="11" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="11" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>312</v>
       </c>
@@ -8481,7 +8310,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="11" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="11" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>317</v>
       </c>
@@ -8519,7 +8348,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="11" customFormat="1" ht="23.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="11" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>322</v>
       </c>
@@ -8557,7 +8386,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>327</v>
       </c>
@@ -8600,7 +8429,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>331</v>
       </c>
@@ -8640,7 +8469,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>334</v>
       </c>
@@ -8678,7 +8507,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>338</v>
       </c>
@@ -8699,7 +8528,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>339</v>
       </c>
@@ -8745,7 +8574,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>339</v>
       </c>
@@ -8791,7 +8620,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>346</v>
       </c>
@@ -8812,7 +8641,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="19"/>
     </row>
-    <row r="38" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -8858,7 +8687,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>350</v>
       </c>
@@ -8901,7 +8730,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>350</v>
       </c>
@@ -8941,7 +8770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="180" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="192" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>358</v>
       </c>
@@ -8984,7 +8813,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="112" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>362</v>
       </c>
@@ -9027,7 +8856,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>366</v>
       </c>
@@ -9070,7 +8899,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>370</v>
       </c>
@@ -9113,7 +8942,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>370</v>
       </c>
@@ -9153,7 +8982,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>378</v>
       </c>
@@ -9191,7 +9020,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="176" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>383</v>
       </c>
@@ -9234,7 +9063,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>387</v>
       </c>
@@ -9255,7 +9084,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="19"/>
     </row>
-    <row r="49" spans="1:13" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>388</v>
       </c>
@@ -9295,7 +9124,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>393</v>
       </c>
@@ -9335,7 +9164,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="11" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="11" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>397</v>
       </c>
@@ -9373,7 +9202,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="11" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" s="11" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>397</v>
       </c>
@@ -9413,7 +9242,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="11" customFormat="1" ht="124.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" s="11" customFormat="1" ht="144" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>405</v>
       </c>
@@ -9453,7 +9282,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>409</v>
       </c>
@@ -9474,7 +9303,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="19"/>
     </row>
-    <row r="55" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -9514,7 +9343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>414</v>
       </c>
@@ -9557,7 +9386,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
         <v>419</v>
       </c>
@@ -9597,7 +9426,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="176" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>425</v>
       </c>
@@ -9640,7 +9469,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
         <v>429</v>
       </c>
@@ -9680,7 +9509,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>433</v>
       </c>
@@ -9723,7 +9552,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
         <v>437</v>
       </c>
@@ -9763,7 +9592,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>441</v>
       </c>
@@ -9806,7 +9635,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>446</v>
       </c>
@@ -9846,7 +9675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="11" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" s="11" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
         <v>449</v>
       </c>
@@ -9886,7 +9715,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="11" customFormat="1" ht="79" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
         <v>454</v>
       </c>
@@ -9926,7 +9755,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>459</v>
       </c>
@@ -9947,7 +9776,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="19"/>
     </row>
-    <row r="67" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>460</v>
       </c>
@@ -9987,7 +9816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>463</v>
       </c>
@@ -10027,7 +9856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>466</v>
       </c>
@@ -10067,7 +9896,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>471</v>
       </c>
@@ -10107,7 +9936,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="11" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="11" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
         <v>475</v>
       </c>
@@ -10147,7 +9976,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>480</v>
       </c>
@@ -10168,7 +9997,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="19"/>
     </row>
-    <row r="73" spans="1:14" ht="180" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="192" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>481</v>
       </c>
@@ -10214,7 +10043,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>485</v>
       </c>
@@ -10254,7 +10083,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>489</v>
       </c>
@@ -10294,7 +10123,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="128" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>493</v>
       </c>
@@ -10334,7 +10163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="11" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>496</v>
       </c>
@@ -10374,7 +10203,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>501</v>
       </c>
@@ -10395,7 +10224,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="19"/>
     </row>
-    <row r="79" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>502</v>
       </c>
@@ -10438,7 +10267,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>504</v>
       </c>
@@ -10481,7 +10310,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="112" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>507</v>
       </c>
@@ -10521,7 +10350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>512</v>
       </c>
@@ -10561,7 +10390,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>516</v>
       </c>
@@ -10582,7 +10411,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="19"/>
     </row>
-    <row r="84" spans="1:14" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="49" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>517</v>
       </c>
@@ -10622,7 +10451,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="81" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>521</v>
       </c>
@@ -10659,7 +10488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="60.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="65" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>524</v>
       </c>
@@ -10696,7 +10525,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="81" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>527</v>
       </c>
@@ -10739,7 +10568,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="60.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="65" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>531</v>
       </c>
@@ -10779,7 +10608,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="60.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="65" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>535</v>
       </c>
@@ -10822,7 +10651,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="105.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="97" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>539</v>
       </c>
@@ -10859,7 +10688,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="165.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="177" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>542</v>
       </c>
@@ -10899,7 +10728,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="81" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>547</v>
       </c>
@@ -10939,7 +10768,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>552</v>
       </c>
@@ -10960,7 +10789,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="19"/>
     </row>
-    <row r="94" spans="1:14" s="11" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" s="11" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
         <v>553</v>
       </c>
@@ -11000,7 +10829,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="11" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" s="11" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
         <v>557</v>
       </c>
@@ -11040,7 +10869,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="14" customFormat="1" ht="23.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" s="14" customFormat="1" ht="27" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
         <v>561</v>
       </c>
@@ -11080,7 +10909,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="14" customFormat="1" ht="57" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" s="14" customFormat="1" ht="66" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
         <v>565</v>
       </c>
@@ -11120,7 +10949,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="14" customFormat="1" ht="113.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" s="14" customFormat="1" ht="131" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
         <v>570</v>
       </c>
@@ -11160,7 +10989,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="14" customFormat="1" ht="68.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" s="14" customFormat="1" ht="79" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
         <v>575</v>
       </c>
@@ -11200,7 +11029,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="14" customFormat="1" ht="169.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" s="14" customFormat="1" ht="183" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
         <v>579</v>
       </c>
@@ -11240,7 +11069,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
         <v>585</v>
       </c>
@@ -11280,7 +11109,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
         <v>589</v>
       </c>
@@ -11320,7 +11149,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
         <v>593</v>
       </c>
@@ -11360,7 +11189,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="36" t="s">
         <v>597</v>
       </c>
@@ -11400,7 +11229,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
         <v>601</v>
       </c>
@@ -11440,7 +11269,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
         <v>605</v>
       </c>
@@ -11480,7 +11309,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
         <v>610</v>
       </c>
@@ -11520,7 +11349,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36" t="s">
         <v>614</v>
       </c>
@@ -11560,7 +11389,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="14" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36" t="s">
         <v>618</v>
       </c>
@@ -11600,7 +11429,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
         <v>622</v>
       </c>
@@ -11640,7 +11469,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36" t="s">
         <v>626</v>
       </c>
@@ -11680,7 +11509,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="11" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="36" t="s">
         <v>630</v>
       </c>
@@ -11720,7 +11549,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="11" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36" t="s">
         <v>634</v>
       </c>
@@ -11760,7 +11589,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="11" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="36" t="s">
         <v>638</v>
       </c>
@@ -11800,7 +11629,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="11" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" s="11" customFormat="1" ht="131" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
         <v>642</v>
       </c>
@@ -11840,7 +11669,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="11" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
         <v>646</v>
       </c>
@@ -11880,7 +11709,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>650</v>
       </c>
@@ -11901,7 +11730,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="19"/>
     </row>
-    <row r="118" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="80" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>334</v>
       </c>
@@ -11944,7 +11773,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>653</v>
       </c>
@@ -11985,7 +11814,7 @@
       </c>
       <c r="N119" s="43"/>
     </row>
-    <row r="120" spans="1:14" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="80" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>656</v>
       </c>
@@ -12026,7 +11855,7 @@
       </c>
       <c r="N120" s="43"/>
     </row>
-    <row r="121" spans="1:14" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="112" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>659</v>
       </c>
@@ -12067,7 +11896,7 @@
       </c>
       <c r="N121" s="43"/>
     </row>
-    <row r="122" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>663</v>
       </c>
@@ -12108,7 +11937,7 @@
       </c>
       <c r="N122" s="43"/>
     </row>
-    <row r="123" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>666</v>
       </c>
@@ -12149,7 +11978,7 @@
       </c>
       <c r="N123" s="43"/>
     </row>
-    <row r="124" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>670</v>
       </c>
@@ -12190,7 +12019,7 @@
       </c>
       <c r="N124" s="43"/>
     </row>
-    <row r="125" spans="1:14" ht="255" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="272" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>673</v>
       </c>
@@ -12231,7 +12060,7 @@
       </c>
       <c r="N125" s="43"/>
     </row>
-    <row r="126" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>677</v>
       </c>
@@ -12252,7 +12081,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="19"/>
     </row>
-    <row r="127" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
         <v>678</v>
       </c>
@@ -12292,7 +12121,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="14" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" s="14" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
         <v>684</v>
       </c>
@@ -12332,7 +12161,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="14" customFormat="1" ht="57" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" s="14" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
         <v>688</v>
       </c>
@@ -12372,7 +12201,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="14" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
         <v>693</v>
       </c>
@@ -12412,7 +12241,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" s="14" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>697</v>
       </c>
@@ -12452,7 +12281,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="14" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
         <v>701</v>
       </c>
@@ -12492,7 +12321,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="14" customFormat="1" ht="23.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" s="14" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
         <v>705</v>
       </c>
@@ -12532,7 +12361,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="14" customFormat="1" ht="23.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" s="14" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
         <v>709</v>
       </c>
@@ -12572,7 +12401,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="135" spans="1:12" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:12" collapsed="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:L134" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
@@ -12614,63 +12443,47 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334282CC-DFA0-48FD-AD80-F17EF0D3CFB1}">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" customWidth="1"/>
-    <col min="10" max="10" width="87.140625" customWidth="1"/>
-    <col min="11" max="11" width="73.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>192</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F1" s="42" t="s">
         <v>204</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>788</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>817</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>777</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>793</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -12690,13 +12503,10 @@
         <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>766</v>
-      </c>
-      <c r="I2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -12715,11 +12525,8 @@
       <c r="F3" t="s">
         <v>216</v>
       </c>
-      <c r="I3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>220</v>
       </c>
@@ -12739,13 +12546,10 @@
         <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>768</v>
-      </c>
-      <c r="I4" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -12765,13 +12569,10 @@
         <v>224</v>
       </c>
       <c r="G5" t="s">
-        <v>768</v>
-      </c>
-      <c r="I5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>229</v>
       </c>
@@ -12790,11 +12591,8 @@
       <c r="F6" t="s">
         <v>230</v>
       </c>
-      <c r="I6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -12813,11 +12611,8 @@
       <c r="F7" t="s">
         <v>235</v>
       </c>
-      <c r="I7" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -12836,11 +12631,8 @@
       <c r="F8" t="s">
         <v>55</v>
       </c>
-      <c r="I8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -12859,11 +12651,8 @@
       <c r="F9" t="s">
         <v>240</v>
       </c>
-      <c r="I9" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -12879,11 +12668,8 @@
       <c r="F10" t="s">
         <v>243</v>
       </c>
-      <c r="I10" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -12899,11 +12685,8 @@
       <c r="F11" t="s">
         <v>248</v>
       </c>
-      <c r="I11" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -12919,11 +12702,8 @@
       <c r="F12" t="s">
         <v>252</v>
       </c>
-      <c r="I12" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>255</v>
       </c>
@@ -12943,13 +12723,10 @@
         <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>768</v>
-      </c>
-      <c r="I13" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>259</v>
       </c>
@@ -12969,16 +12746,10 @@
         <v>260</v>
       </c>
       <c r="G14" t="s">
-        <v>768</v>
-      </c>
-      <c r="I14" t="s">
-        <v>780</v>
-      </c>
-      <c r="J14" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>264</v>
       </c>
@@ -12998,16 +12769,10 @@
         <v>265</v>
       </c>
       <c r="G15" t="s">
-        <v>768</v>
-      </c>
-      <c r="I15" t="s">
-        <v>780</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -13026,11 +12791,8 @@
       <c r="F16" t="s">
         <v>270</v>
       </c>
-      <c r="I16" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>269</v>
       </c>
@@ -13046,11 +12808,8 @@
       <c r="F17" t="s">
         <v>274</v>
       </c>
-      <c r="I17" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -13066,11 +12825,8 @@
       <c r="F18" t="s">
         <v>280</v>
       </c>
-      <c r="I18" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -13086,11 +12842,8 @@
       <c r="F19" t="s">
         <v>284</v>
       </c>
-      <c r="I19" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>288</v>
       </c>
@@ -13110,13 +12863,10 @@
         <v>289</v>
       </c>
       <c r="G20" t="s">
-        <v>768</v>
-      </c>
-      <c r="I20" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -13136,16 +12886,10 @@
         <v>294</v>
       </c>
       <c r="G21" t="s">
-        <v>768</v>
-      </c>
-      <c r="I21" t="s">
-        <v>780</v>
-      </c>
-      <c r="J21" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>298</v>
       </c>
@@ -13165,16 +12909,10 @@
         <v>299</v>
       </c>
       <c r="G22" t="s">
-        <v>768</v>
-      </c>
-      <c r="I22" t="s">
-        <v>780</v>
-      </c>
-      <c r="J22" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -13190,11 +12928,8 @@
       <c r="F23" t="s">
         <v>304</v>
       </c>
-      <c r="I23" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>307</v>
       </c>
@@ -13213,17 +12948,8 @@
       <c r="F24" t="s">
         <v>308</v>
       </c>
-      <c r="I24" t="s">
-        <v>780</v>
-      </c>
-      <c r="J24" t="s">
-        <v>795</v>
-      </c>
-      <c r="K24" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -13239,11 +12965,8 @@
       <c r="F25" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="I25" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>317</v>
       </c>
@@ -13259,11 +12982,8 @@
       <c r="F26" t="s">
         <v>318</v>
       </c>
-      <c r="I26" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>322</v>
       </c>
@@ -13279,11 +12999,8 @@
       <c r="F27" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="I27" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -13303,16 +13020,10 @@
         <v>328</v>
       </c>
       <c r="G28" t="s">
-        <v>768</v>
-      </c>
-      <c r="I28" t="s">
-        <v>780</v>
-      </c>
-      <c r="J28" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>331</v>
       </c>
@@ -13332,13 +13043,10 @@
         <v>332</v>
       </c>
       <c r="G29" t="s">
-        <v>768</v>
-      </c>
-      <c r="I29" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -13354,11 +13062,11 @@
       <c r="F30" t="s">
         <v>335</v>
       </c>
-      <c r="I30" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>339</v>
       </c>
@@ -13378,16 +13086,10 @@
         <v>340</v>
       </c>
       <c r="G31" t="s">
-        <v>768</v>
-      </c>
-      <c r="I31" t="s">
-        <v>783</v>
-      </c>
-      <c r="J31" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>339</v>
       </c>
@@ -13406,17 +13108,8 @@
       <c r="F32" t="s">
         <v>344</v>
       </c>
-      <c r="G32" t="s">
-        <v>768</v>
-      </c>
-      <c r="I32" t="s">
-        <v>766</v>
-      </c>
-      <c r="J32" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>347</v>
       </c>
@@ -13436,13 +13129,10 @@
         <v>348</v>
       </c>
       <c r="G33" t="s">
-        <v>768</v>
-      </c>
-      <c r="I33" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>350</v>
       </c>
@@ -13462,19 +13152,10 @@
         <v>351</v>
       </c>
       <c r="G34" t="s">
-        <v>768</v>
-      </c>
-      <c r="I34" t="s">
-        <v>780</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="K34" s="45" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>350</v>
       </c>
@@ -13493,11 +13174,8 @@
       <c r="F35" t="s">
         <v>354</v>
       </c>
-      <c r="I35" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>358</v>
       </c>
@@ -13516,17 +13194,8 @@
       <c r="F36" t="s">
         <v>359</v>
       </c>
-      <c r="I36" t="s">
-        <v>780</v>
-      </c>
-      <c r="J36" t="s">
-        <v>804</v>
-      </c>
-      <c r="K36" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>362</v>
       </c>
@@ -13545,14 +13214,8 @@
       <c r="F37" t="s">
         <v>363</v>
       </c>
-      <c r="I37" t="s">
-        <v>778</v>
-      </c>
-      <c r="J37" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>366</v>
       </c>
@@ -13571,11 +13234,8 @@
       <c r="F38" t="s">
         <v>367</v>
       </c>
-      <c r="I38" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>370</v>
       </c>
@@ -13595,16 +13255,10 @@
         <v>371</v>
       </c>
       <c r="G39" t="s">
-        <v>767</v>
-      </c>
-      <c r="I39" t="s">
-        <v>780</v>
-      </c>
-      <c r="J39" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>370</v>
       </c>
@@ -13623,11 +13277,8 @@
       <c r="F40" t="s">
         <v>374</v>
       </c>
-      <c r="I40" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>378</v>
       </c>
@@ -13643,11 +13294,8 @@
       <c r="F41" t="s">
         <v>379</v>
       </c>
-      <c r="I41" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>383</v>
       </c>
@@ -13666,14 +13314,8 @@
       <c r="F42" t="s">
         <v>384</v>
       </c>
-      <c r="I42" t="s">
-        <v>807</v>
-      </c>
-      <c r="J42" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>388</v>
       </c>
@@ -13689,11 +13331,8 @@
       <c r="F43" t="s">
         <v>389</v>
       </c>
-      <c r="I43" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>393</v>
       </c>
@@ -13709,11 +13348,8 @@
       <c r="F44" t="s">
         <v>394</v>
       </c>
-      <c r="I44" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>397</v>
       </c>
@@ -13729,11 +13365,8 @@
       <c r="F45" t="s">
         <v>398</v>
       </c>
-      <c r="I45" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>397</v>
       </c>
@@ -13749,11 +13382,8 @@
       <c r="F46" t="s">
         <v>401</v>
       </c>
-      <c r="I46" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>405</v>
       </c>
@@ -13769,11 +13399,8 @@
       <c r="F47" t="s">
         <v>406</v>
       </c>
-      <c r="I47" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>410</v>
       </c>
@@ -13792,14 +13419,8 @@
       <c r="F48" t="s">
         <v>411</v>
       </c>
-      <c r="I48" t="s">
-        <v>780</v>
-      </c>
-      <c r="J48" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>414</v>
       </c>
@@ -13818,14 +13439,8 @@
       <c r="F49" t="s">
         <v>415</v>
       </c>
-      <c r="I49" t="s">
-        <v>780</v>
-      </c>
-      <c r="J49" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>419</v>
       </c>
@@ -13841,11 +13456,8 @@
       <c r="F50" t="s">
         <v>420</v>
       </c>
-      <c r="I50" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>425</v>
       </c>
@@ -13864,14 +13476,8 @@
       <c r="F51" t="s">
         <v>426</v>
       </c>
-      <c r="I51" t="s">
-        <v>780</v>
-      </c>
-      <c r="J51" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>429</v>
       </c>
@@ -13887,11 +13493,8 @@
       <c r="F52" t="s">
         <v>430</v>
       </c>
-      <c r="I52" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>433</v>
       </c>
@@ -13910,14 +13513,8 @@
       <c r="F53" t="s">
         <v>434</v>
       </c>
-      <c r="I53" t="s">
-        <v>780</v>
-      </c>
-      <c r="J53" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -13933,11 +13530,8 @@
       <c r="F54" t="s">
         <v>438</v>
       </c>
-      <c r="I54" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>441</v>
       </c>
@@ -13956,11 +13550,8 @@
       <c r="F55" t="s">
         <v>442</v>
       </c>
-      <c r="I55" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>446</v>
       </c>
@@ -13979,11 +13570,8 @@
       <c r="F56" t="s">
         <v>447</v>
       </c>
-      <c r="I56" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>449</v>
       </c>
@@ -13999,11 +13587,8 @@
       <c r="F57" t="s">
         <v>450</v>
       </c>
-      <c r="I57" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>454</v>
       </c>
@@ -14019,11 +13604,8 @@
       <c r="F58" t="s">
         <v>455</v>
       </c>
-      <c r="I58" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -14042,11 +13624,8 @@
       <c r="F59" t="s">
         <v>461</v>
       </c>
-      <c r="I59" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>463</v>
       </c>
@@ -14065,11 +13644,8 @@
       <c r="F60" t="s">
         <v>464</v>
       </c>
-      <c r="I60" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>466</v>
       </c>
@@ -14088,11 +13664,8 @@
       <c r="F61" t="s">
         <v>467</v>
       </c>
-      <c r="I61" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>471</v>
       </c>
@@ -14111,11 +13684,8 @@
       <c r="F62" t="s">
         <v>472</v>
       </c>
-      <c r="I62" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>475</v>
       </c>
@@ -14131,11 +13701,8 @@
       <c r="F63" t="s">
         <v>476</v>
       </c>
-      <c r="I63" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>481</v>
       </c>
@@ -14155,19 +13722,10 @@
         <v>482</v>
       </c>
       <c r="G64" t="s">
-        <v>768</v>
-      </c>
-      <c r="I64" t="s">
-        <v>780</v>
-      </c>
-      <c r="J64" t="s">
-        <v>810</v>
-      </c>
-      <c r="K64" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>485</v>
       </c>
@@ -14183,11 +13741,8 @@
       <c r="F65" t="s">
         <v>486</v>
       </c>
-      <c r="I65" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>489</v>
       </c>
@@ -14203,11 +13758,8 @@
       <c r="F66" t="s">
         <v>490</v>
       </c>
-      <c r="I66" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>493</v>
       </c>
@@ -14227,16 +13779,10 @@
         <v>494</v>
       </c>
       <c r="G67" t="s">
-        <v>767</v>
-      </c>
-      <c r="I67" t="s">
-        <v>786</v>
-      </c>
-      <c r="J67" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>496</v>
       </c>
@@ -14252,11 +13798,8 @@
       <c r="F68" t="s">
         <v>497</v>
       </c>
-      <c r="I68" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>502</v>
       </c>
@@ -14275,14 +13818,8 @@
       <c r="F69" t="s">
         <v>503</v>
       </c>
-      <c r="I69" t="s">
-        <v>780</v>
-      </c>
-      <c r="J69" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>504</v>
       </c>
@@ -14301,11 +13838,8 @@
       <c r="F70" t="s">
         <v>505</v>
       </c>
-      <c r="I70" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>507</v>
       </c>
@@ -14319,19 +13853,13 @@
         <v>193</v>
       </c>
       <c r="E71" t="s">
-        <v>774</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
         <v>508</v>
       </c>
-      <c r="I71" t="s">
-        <v>780</v>
-      </c>
-      <c r="J71" s="46" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>512</v>
       </c>
@@ -14351,16 +13879,10 @@
         <v>513</v>
       </c>
       <c r="G72" t="s">
-        <v>768</v>
-      </c>
-      <c r="I72" t="s">
-        <v>780</v>
-      </c>
-      <c r="J72" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>517</v>
       </c>
@@ -14374,19 +13896,13 @@
         <v>193</v>
       </c>
       <c r="E73" t="s">
-        <v>775</v>
+        <v>16</v>
       </c>
       <c r="F73" t="s">
         <v>518</v>
       </c>
-      <c r="I73" t="s">
-        <v>780</v>
-      </c>
-      <c r="J73" s="46" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>521</v>
       </c>
@@ -14405,11 +13921,8 @@
       <c r="F74" t="s">
         <v>522</v>
       </c>
-      <c r="I74" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>524</v>
       </c>
@@ -14428,11 +13941,8 @@
       <c r="F75" t="s">
         <v>135</v>
       </c>
-      <c r="I75" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>527</v>
       </c>
@@ -14451,11 +13961,8 @@
       <c r="F76" t="s">
         <v>136</v>
       </c>
-      <c r="I76" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>531</v>
       </c>
@@ -14474,11 +13981,8 @@
       <c r="F77" t="s">
         <v>532</v>
       </c>
-      <c r="I77" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>535</v>
       </c>
@@ -14492,16 +13996,13 @@
         <v>195</v>
       </c>
       <c r="E78" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F78" t="s">
         <v>536</v>
       </c>
-      <c r="I78" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>539</v>
       </c>
@@ -14520,11 +14021,8 @@
       <c r="F79" t="s">
         <v>139</v>
       </c>
-      <c r="I79" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>542</v>
       </c>
@@ -14543,11 +14041,8 @@
       <c r="F80" t="s">
         <v>543</v>
       </c>
-      <c r="I80" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>547</v>
       </c>
@@ -14566,11 +14061,8 @@
       <c r="F81" t="s">
         <v>141</v>
       </c>
-      <c r="I81" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>553</v>
       </c>
@@ -14581,16 +14073,13 @@
         <v>197</v>
       </c>
       <c r="E82" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F82" t="s">
         <v>554</v>
       </c>
-      <c r="I82" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>557</v>
       </c>
@@ -14606,11 +14095,8 @@
       <c r="F83" t="s">
         <v>558</v>
       </c>
-      <c r="I83" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>561</v>
       </c>
@@ -14626,11 +14112,8 @@
       <c r="F84" t="s">
         <v>562</v>
       </c>
-      <c r="I84" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>565</v>
       </c>
@@ -14646,11 +14129,8 @@
       <c r="F85" t="s">
         <v>566</v>
       </c>
-      <c r="I85" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>570</v>
       </c>
@@ -14666,11 +14146,8 @@
       <c r="F86" t="s">
         <v>571</v>
       </c>
-      <c r="I86" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>575</v>
       </c>
@@ -14686,11 +14163,8 @@
       <c r="F87" t="s">
         <v>576</v>
       </c>
-      <c r="I87" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>579</v>
       </c>
@@ -14706,11 +14180,8 @@
       <c r="F88" t="s">
         <v>580</v>
       </c>
-      <c r="I88" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>585</v>
       </c>
@@ -14726,11 +14197,8 @@
       <c r="F89" t="s">
         <v>586</v>
       </c>
-      <c r="I89" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>589</v>
       </c>
@@ -14746,11 +14214,8 @@
       <c r="F90" t="s">
         <v>590</v>
       </c>
-      <c r="I90" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>593</v>
       </c>
@@ -14766,11 +14231,8 @@
       <c r="F91" t="s">
         <v>594</v>
       </c>
-      <c r="I91" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>597</v>
       </c>
@@ -14786,11 +14248,8 @@
       <c r="F92" t="s">
         <v>598</v>
       </c>
-      <c r="I92" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>601</v>
       </c>
@@ -14806,11 +14265,8 @@
       <c r="F93" t="s">
         <v>602</v>
       </c>
-      <c r="I93" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>605</v>
       </c>
@@ -14826,11 +14282,8 @@
       <c r="F94" t="s">
         <v>606</v>
       </c>
-      <c r="I94" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>610</v>
       </c>
@@ -14846,11 +14299,8 @@
       <c r="F95" t="s">
         <v>611</v>
       </c>
-      <c r="I95" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>614</v>
       </c>
@@ -14866,11 +14316,8 @@
       <c r="F96" t="s">
         <v>615</v>
       </c>
-      <c r="I96" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>618</v>
       </c>
@@ -14886,11 +14333,8 @@
       <c r="F97" t="s">
         <v>619</v>
       </c>
-      <c r="I97" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>622</v>
       </c>
@@ -14906,11 +14350,8 @@
       <c r="F98" t="s">
         <v>623</v>
       </c>
-      <c r="I98" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>626</v>
       </c>
@@ -14926,11 +14367,8 @@
       <c r="F99" t="s">
         <v>627</v>
       </c>
-      <c r="I99" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>630</v>
       </c>
@@ -14946,11 +14384,8 @@
       <c r="F100" t="s">
         <v>631</v>
       </c>
-      <c r="I100" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>634</v>
       </c>
@@ -14966,11 +14401,8 @@
       <c r="F101" t="s">
         <v>635</v>
       </c>
-      <c r="I101" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>638</v>
       </c>
@@ -14986,11 +14418,8 @@
       <c r="F102" t="s">
         <v>639</v>
       </c>
-      <c r="I102" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>642</v>
       </c>
@@ -15006,11 +14435,8 @@
       <c r="F103" t="s">
         <v>643</v>
       </c>
-      <c r="I103" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>646</v>
       </c>
@@ -15026,11 +14452,8 @@
       <c r="F104" t="s">
         <v>647</v>
       </c>
-      <c r="I104" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>334</v>
       </c>
@@ -15049,14 +14472,8 @@
       <c r="F105" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="I105" t="s">
-        <v>787</v>
-      </c>
-      <c r="J105" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>653</v>
       </c>
@@ -15075,14 +14492,8 @@
       <c r="F106" t="s">
         <v>654</v>
       </c>
-      <c r="I106" t="s">
-        <v>780</v>
-      </c>
-      <c r="J106" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>656</v>
       </c>
@@ -15101,11 +14512,8 @@
       <c r="F107" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="I107" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>659</v>
       </c>
@@ -15124,11 +14532,8 @@
       <c r="F108" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="I108" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>663</v>
       </c>
@@ -15147,11 +14552,8 @@
       <c r="F109" t="s">
         <v>664</v>
       </c>
-      <c r="I109" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>666</v>
       </c>
@@ -15170,11 +14572,8 @@
       <c r="F110" t="s">
         <v>667</v>
       </c>
-      <c r="I110" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>670</v>
       </c>
@@ -15193,17 +14592,8 @@
       <c r="F111" t="s">
         <v>671</v>
       </c>
-      <c r="G111" t="s">
-        <v>767</v>
-      </c>
-      <c r="I111" t="s">
-        <v>780</v>
-      </c>
-      <c r="J111" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>673</v>
       </c>
@@ -15223,16 +14613,10 @@
         <v>674</v>
       </c>
       <c r="G112" t="s">
-        <v>767</v>
-      </c>
-      <c r="I112" t="s">
-        <v>780</v>
-      </c>
-      <c r="J112" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>678</v>
       </c>
@@ -15248,11 +14632,8 @@
       <c r="F113" t="s">
         <v>679</v>
       </c>
-      <c r="I113" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>684</v>
       </c>
@@ -15268,11 +14649,8 @@
       <c r="F114" t="s">
         <v>685</v>
       </c>
-      <c r="I114" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>688</v>
       </c>
@@ -15288,11 +14666,8 @@
       <c r="F115" t="s">
         <v>689</v>
       </c>
-      <c r="I115" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>693</v>
       </c>
@@ -15308,11 +14683,8 @@
       <c r="F116" t="s">
         <v>694</v>
       </c>
-      <c r="I116" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>697</v>
       </c>
@@ -15328,11 +14700,8 @@
       <c r="F117" t="s">
         <v>698</v>
       </c>
-      <c r="I117" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>701</v>
       </c>
@@ -15348,11 +14717,8 @@
       <c r="F118" t="s">
         <v>702</v>
       </c>
-      <c r="I118" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>705</v>
       </c>
@@ -15368,11 +14734,8 @@
       <c r="F119" t="s">
         <v>706</v>
       </c>
-      <c r="I119" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>709</v>
       </c>
@@ -15387,9 +14750,6 @@
       </c>
       <c r="F120" t="s">
         <v>710</v>
-      </c>
-      <c r="I120" t="s">
-        <v>778</v>
       </c>
     </row>
   </sheetData>

--- a/Global/OMIS/OMIS_Headers.xlsx
+++ b/Global/OMIS/OMIS_Headers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jhreportscomau-my.sharepoint.com/personal/josh_jhreports_com_au/Documents/JHR ONSITE/Git_Scripts/DataConnect/OMIS/Global/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51000689\Documents\GitHub\clinical-data-collection\Global\OMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{16EEECB5-2466-454E-AE57-9CEF0F0B2B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73A57E03-04B1-4F42-BC34-D2BD9C60C327}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886673D0-BD78-4200-BD08-D853A4ED382B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22560" yWindow="2020" windowWidth="28160" windowHeight="23200" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
+    <workbookView xWindow="5460" yWindow="960" windowWidth="48060" windowHeight="19350" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
   </bookViews>
   <sheets>
     <sheet name="Short" sheetId="1" r:id="rId1"/>
@@ -4080,7 +4080,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="EROD 2.0 vs OMIS Spec 3.4 OHR"/>
@@ -5618,13 +5618,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6142,12 +6142,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7221,23 +7221,23 @@
       <selection pane="bottomLeft" activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.5" customWidth="1"/>
-    <col min="11" max="11" width="62.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="54.6640625" customWidth="1"/>
-    <col min="13" max="13" width="98.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="95.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" customWidth="1"/>
+    <col min="11" max="11" width="62.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="54.7109375" customWidth="1"/>
+    <col min="13" max="13" width="98.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="95.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>199</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="80" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>213</v>
       </c>
@@ -7345,7 +7345,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>220</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>223</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>228</v>
       </c>
@@ -7483,7 +7483,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>234</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>237</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>242</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>247</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>251</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="112" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>259</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>264</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>269</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>269</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>269</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>288</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>293</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="256" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="240" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>298</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="11" customFormat="1" ht="209" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="11" customFormat="1" ht="180.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>303</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="144" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>307</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="11" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>311</v>
       </c>
@@ -8270,7 +8270,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="1:14" s="11" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="11" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>312</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="11" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="11" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>317</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="11" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="11" customFormat="1" ht="23.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>322</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>327</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>331</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>334</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>338</v>
       </c>
@@ -8528,7 +8528,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>339</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>339</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>346</v>
       </c>
@@ -8641,7 +8641,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="19"/>
     </row>
-    <row r="38" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>350</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>350</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="192" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="180" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>358</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="112" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>362</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>366</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>370</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>370</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
         <v>378</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="176" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>383</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>387</v>
       </c>
@@ -9084,7 +9084,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="19"/>
     </row>
-    <row r="49" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>388</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>393</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="11" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="11" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>397</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="11" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="11" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>397</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="11" customFormat="1" ht="144" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="11" customFormat="1" ht="124.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>405</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>409</v>
       </c>
@@ -9303,7 +9303,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="19"/>
     </row>
-    <row r="55" spans="1:13" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>414</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="34" t="s">
         <v>419</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="176" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>425</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="34" t="s">
         <v>429</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>433</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="34" t="s">
         <v>437</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>441</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>446</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="11" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="11" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
         <v>449</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="11" customFormat="1" ht="79" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
         <v>454</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>459</v>
       </c>
@@ -9776,7 +9776,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="19"/>
     </row>
-    <row r="67" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>460</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>463</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>466</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>471</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="11" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="11" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="34" t="s">
         <v>475</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>480</v>
       </c>
@@ -9997,7 +9997,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="19"/>
     </row>
-    <row r="73" spans="1:14" ht="192" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="180" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>481</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="29" t="s">
         <v>485</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" s="11" customFormat="1" ht="79.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="29" t="s">
         <v>489</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="128" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>493</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="11" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="29" t="s">
         <v>496</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>501</v>
       </c>
@@ -10224,7 +10224,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="19"/>
     </row>
-    <row r="79" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>502</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>504</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="112" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>507</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>512</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>516</v>
       </c>
@@ -10411,7 +10411,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="19"/>
     </row>
-    <row r="84" spans="1:14" ht="49" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>517</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="81" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>521</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="65" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="60.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>524</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="81" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>527</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="65" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="60.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>531</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="65" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="60.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>535</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="97" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="105.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>539</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="177" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="165.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>542</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="81" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>547</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>552</v>
       </c>
@@ -10789,7 +10789,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="19"/>
     </row>
-    <row r="94" spans="1:14" s="11" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" s="11" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="36" t="s">
         <v>553</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="11" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="11" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="36" t="s">
         <v>557</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="14" customFormat="1" ht="27" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" s="14" customFormat="1" ht="23.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="36" t="s">
         <v>561</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="14" customFormat="1" ht="66" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" s="14" customFormat="1" ht="57" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="36" t="s">
         <v>565</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="14" customFormat="1" ht="131" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" s="14" customFormat="1" ht="113.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="36" t="s">
         <v>570</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="14" customFormat="1" ht="79" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" s="14" customFormat="1" ht="68.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="36" t="s">
         <v>575</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="14" customFormat="1" ht="183" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" s="14" customFormat="1" ht="169.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="36" t="s">
         <v>579</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="36" t="s">
         <v>585</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="36" t="s">
         <v>589</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="36" t="s">
         <v>593</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="36" t="s">
         <v>597</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="36" t="s">
         <v>601</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="36" t="s">
         <v>605</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="36" t="s">
         <v>610</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="36" t="s">
         <v>614</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" s="14" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="36" t="s">
         <v>618</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="36" t="s">
         <v>622</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" s="14" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="36" t="s">
         <v>626</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" s="11" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="36" t="s">
         <v>630</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" s="11" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="36" t="s">
         <v>634</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" s="11" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="36" t="s">
         <v>638</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="11" customFormat="1" ht="131" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" s="11" customFormat="1" ht="113.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="36" t="s">
         <v>642</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" s="11" customFormat="1" ht="102" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="36" t="s">
         <v>646</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>650</v>
       </c>
@@ -11730,7 +11730,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="19"/>
     </row>
-    <row r="118" spans="1:14" ht="80" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>334</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>653</v>
       </c>
@@ -11814,7 +11814,7 @@
       </c>
       <c r="N119" s="43"/>
     </row>
-    <row r="120" spans="1:14" ht="80" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>656</v>
       </c>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="N120" s="43"/>
     </row>
-    <row r="121" spans="1:14" ht="112" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>659</v>
       </c>
@@ -11896,7 +11896,7 @@
       </c>
       <c r="N121" s="43"/>
     </row>
-    <row r="122" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>663</v>
       </c>
@@ -11937,7 +11937,7 @@
       </c>
       <c r="N122" s="43"/>
     </row>
-    <row r="123" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>666</v>
       </c>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="N123" s="43"/>
     </row>
-    <row r="124" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>670</v>
       </c>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="N124" s="43"/>
     </row>
-    <row r="125" spans="1:14" ht="272" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" ht="255" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>673</v>
       </c>
@@ -12060,7 +12060,7 @@
       </c>
       <c r="N125" s="43"/>
     </row>
-    <row r="126" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="20" customFormat="1" ht="12" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
         <v>677</v>
       </c>
@@ -12081,7 +12081,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="19"/>
     </row>
-    <row r="127" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="11" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="21" t="s">
         <v>678</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="14" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" s="14" customFormat="1" ht="12" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="21" t="s">
         <v>684</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="14" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" s="14" customFormat="1" ht="57" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="21" t="s">
         <v>688</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" s="14" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="21" t="s">
         <v>693</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="14" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" s="14" customFormat="1" ht="34.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="21" t="s">
         <v>697</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" s="14" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="21" t="s">
         <v>701</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="14" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" s="14" customFormat="1" ht="23.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="21" t="s">
         <v>705</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="14" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" s="14" customFormat="1" ht="23.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="21" t="s">
         <v>709</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="135" spans="1:12" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="1:12" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:L134" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
@@ -12445,22 +12445,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334282CC-DFA0-48FD-AD80-F17EF0D3CFB1}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>770</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>220</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>229</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>255</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>259</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>264</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>269</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>288</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>298</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>307</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>317</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>322</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>331</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -13062,11 +13062,8 @@
       <c r="F30" t="s">
         <v>335</v>
       </c>
-      <c r="G30" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>339</v>
       </c>
@@ -13089,7 +13086,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>339</v>
       </c>
@@ -13108,8 +13105,11 @@
       <c r="F32" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>347</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>350</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>350</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>358</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>362</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>366</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>370</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>370</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>378</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>383</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>388</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>393</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>397</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>397</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>405</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>410</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>414</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>419</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>425</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>429</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>433</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>441</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>446</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>449</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>454</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>463</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>466</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>471</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>475</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>481</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>485</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>489</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>493</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>496</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>502</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>504</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>507</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>512</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>517</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>521</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>524</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>527</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>531</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>535</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>539</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>542</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>547</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>553</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>557</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>561</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>565</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>570</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>575</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>579</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>585</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>589</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>593</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>597</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>601</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>605</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>610</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>614</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>618</v>
       </c>
@@ -14334,7 +14334,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>622</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>626</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>630</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>634</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>638</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>642</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>646</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>334</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>653</v>
       </c>
@@ -14493,7 +14493,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>656</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>659</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>663</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>666</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>670</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>673</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>678</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>684</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>688</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>693</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>697</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>701</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>705</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>709</v>
       </c>

--- a/Global/OMIS/OMIS_Headers.xlsx
+++ b/Global/OMIS/OMIS_Headers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51000689\Documents\GitHub\clinical-data-collection\Global\OMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886673D0-BD78-4200-BD08-D853A4ED382B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2424D8E-7D41-4C70-8DDD-D9368C5B601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="960" windowWidth="48060" windowHeight="19350" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
   </bookViews>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="777">
   <si>
     <t>PerformanceStatus</t>
   </si>
@@ -3630,6 +3630,9 @@
   </si>
   <si>
     <t>SystemicTherapyProtocolCycleNumber</t>
+  </si>
+  <si>
+    <t>Crticial</t>
   </si>
 </sst>
 </file>
@@ -12446,7 +12449,7 @@
   <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12631,6 +12634,9 @@
       <c r="F8" t="s">
         <v>55</v>
       </c>
+      <c r="G8" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -12947,6 +12953,9 @@
       </c>
       <c r="F24" t="s">
         <v>308</v>
+      </c>
+      <c r="G24" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">

--- a/Global/OMIS/OMIS_Headers.xlsx
+++ b/Global/OMIS/OMIS_Headers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51000689\Documents\GitHub\clinical-data-collection\Global\OMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2424D8E-7D41-4C70-8DDD-D9368C5B601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC06DEC-DEB6-4248-8679-AC36F3F865AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="960" windowWidth="48060" windowHeight="19350" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
   </bookViews>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="776">
   <si>
     <t>PerformanceStatus</t>
   </si>
@@ -3630,9 +3630,6 @@
   </si>
   <si>
     <t>SystemicTherapyProtocolCycleNumber</t>
-  </si>
-  <si>
-    <t>Crticial</t>
   </si>
 </sst>
 </file>
@@ -12955,7 +12952,7 @@
         <v>308</v>
       </c>
       <c r="G24" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">

--- a/Global/OMIS/OMIS_Headers.xlsx
+++ b/Global/OMIS/OMIS_Headers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51000689\Documents\GitHub\clinical-data-collection\Global\OMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC06DEC-DEB6-4248-8679-AC36F3F865AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E28DC18-51C6-4089-B69D-DA374EB118BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="960" windowWidth="48060" windowHeight="19350" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
   </bookViews>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="776">
   <si>
     <t>PerformanceStatus</t>
   </si>
@@ -12445,8 +12445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334282CC-DFA0-48FD-AD80-F17EF0D3CFB1}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112:F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13864,6 +13864,9 @@
       <c r="F71" t="s">
         <v>508</v>
       </c>
+      <c r="G71" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -13907,6 +13910,9 @@
       <c r="F73" t="s">
         <v>518</v>
       </c>
+      <c r="G73" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -14048,7 +14054,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>547</v>
       </c>
@@ -14068,7 +14074,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>553</v>
       </c>
@@ -14084,8 +14090,11 @@
       <c r="F82" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>557</v>
       </c>
@@ -14102,7 +14111,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>561</v>
       </c>
@@ -14119,7 +14128,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>565</v>
       </c>
@@ -14136,7 +14145,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>570</v>
       </c>
@@ -14153,7 +14162,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>575</v>
       </c>
@@ -14170,7 +14179,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>579</v>
       </c>
@@ -14187,7 +14196,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>585</v>
       </c>
@@ -14204,7 +14213,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>589</v>
       </c>
@@ -14221,7 +14230,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>593</v>
       </c>
@@ -14238,7 +14247,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>597</v>
       </c>
@@ -14255,7 +14264,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>601</v>
       </c>
@@ -14272,7 +14281,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>605</v>
       </c>
@@ -14289,7 +14298,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>610</v>
       </c>
@@ -14306,7 +14315,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>614</v>
       </c>
